--- a/Datasets/ecv_cluster.xlsx
+++ b/Datasets/ecv_cluster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7413C982-2593-1942-B98F-54E2ABE36832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DC19F-B410-1041-AAE6-772DF88B2377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="28920" windowHeight="17440" activeTab="3" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
+    <workbookView xWindow="29040" yWindow="-260" windowWidth="27320" windowHeight="14860" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">Tipo de variable </t>
   </si>
   <si>
-    <t>Operación estadística</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
       <t xml:space="preserve">
 Datos por Comunidades Autónomas sobre la tasa de riesgo de pobreza, la carencia material o la situación laboral que encontramos dentro de la Encuesta de Condiciones de Vida (ECV). Datos correspondientes al año 2021.</t>
     </r>
+  </si>
+  <si>
+    <t>IOE+ Operación estadística</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D3CEF-E2BD-4CCB-8005-4FCD1AFF0A9C}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1186,24 +1186,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>38.4</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>20.3</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>26.6</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>24.5</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>38.299999999999997</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>21.6</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>22.4</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>31.4</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>22.1</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>30.3</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>39.1</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>24.5</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>21.1</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>34.700000000000003</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>16.600000000000001</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>15.9</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>20.100000000000001</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>42.4</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>38.1</v>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
@@ -1567,69 +1567,69 @@
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="41">
         <v>2021</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121D932E-B05E-4517-B24D-C64F8A46B4F5}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1700,15 +1700,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="19">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="19">
         <v>0</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="19">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="19">
         <v>0</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="19">
         <v>1</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="19">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="19">
         <v>1</v>

--- a/Datasets/ecv_cluster.xlsx
+++ b/Datasets/ecv_cluster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DC19F-B410-1041-AAE6-772DF88B2377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891F218-30B0-8F40-AF94-EE847C7A446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="-260" windowWidth="27320" windowHeight="14860" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
+    <workbookView xWindow="28800" yWindow="-260" windowWidth="27320" windowHeight="14860" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Tasa en riesgo de pobreza (renta año anterior a la entrevista)</t>
   </si>
   <si>
-    <t>Tasa con carencia material severa</t>
-  </si>
-  <si>
     <t>Tasa de hogares viviendo con baja intensidad en el trabajo (de 0 a 59 años)</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>IOE+ Operación estadística</t>
+  </si>
+  <si>
+    <t>Tasa personas con carencia material severa</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -1186,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
@@ -1567,18 +1567,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>28</v>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -1609,19 +1609,19 @@
         <v>2021</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -1657,7 +1657,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -1700,15 +1700,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="19">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="19">
         <v>0</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="19">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="19">
         <v>0</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="19">
         <v>1</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="19">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="19">
         <v>1</v>

--- a/Datasets/ecv_cluster.xlsx
+++ b/Datasets/ecv_cluster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891F218-30B0-8F40-AF94-EE847C7A446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39F1EF-D1BB-8144-B620-2731C73E1C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-260" windowWidth="27320" windowHeight="14860" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{48641527-5FDB-43DB-B776-5C8AB8186172}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -359,12 +359,131 @@
   <si>
     <t>Tasa personas con carencia material severa</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Se pretende hacer un Análisis Cluster empleando el procedimiento Cluster Jerárquico / K-Means de las **CCAA** en función a las variables **taspobex** y **tascar** s:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Hacer un análisis exploratorio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Ver si hay NA’s y si es necesario escalar los datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.Plantear variables sobre las que se van a hacer los cluster. -  Elegir Función Distancia y Método de Enlace (o comparar varias).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.Interpretar resultados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.Ver métodos Elbrow y Silhouette si hay otro número óptimo de clusters y en ese caso repetir el estudio.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +536,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1072,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D3CEF-E2BD-4CCB-8005-4FCD1AFF0A9C}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,9 +1287,93 @@
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
     </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G11"/>
+    <mergeCell ref="B13:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
